--- a/en/downloads/data-excel/1.a.2.xlsx
+++ b/en/downloads/data-excel/1.a.2.xlsx
@@ -232,7 +232,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -315,6 +315,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -621,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,7 +636,7 @@
     <col min="3" max="3" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>19</v>
       </c>
@@ -656,7 +658,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>20</v>
       </c>
@@ -678,7 +680,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -694,7 +696,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
@@ -743,8 +745,11 @@
       <c r="P4" s="15">
         <v>2019</v>
       </c>
+      <c r="Q4" s="15">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
@@ -793,8 +798,11 @@
       <c r="P5" s="16">
         <v>49.2</v>
       </c>
+      <c r="Q5" s="16">
+        <v>53.2</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>17</v>
       </c>
@@ -843,8 +851,11 @@
       <c r="P6" s="31">
         <v>21.4</v>
       </c>
+      <c r="Q6" s="31">
+        <v>23.2</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>12</v>
       </c>
@@ -893,8 +904,11 @@
       <c r="P7" s="18">
         <v>8.3000000000000007</v>
       </c>
+      <c r="Q7" s="32">
+        <v>10</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>13</v>
       </c>
@@ -943,8 +957,11 @@
       <c r="P8" s="22">
         <v>19.5</v>
       </c>
+      <c r="Q8" s="33">
+        <v>20</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="29"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>

--- a/en/downloads/data-excel/1.a.2.xlsx
+++ b/en/downloads/data-excel/1.a.2.xlsx
@@ -623,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,7 +636,7 @@
     <col min="3" max="3" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>19</v>
       </c>
@@ -658,7 +658,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>20</v>
       </c>
@@ -680,7 +680,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -696,7 +696,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
@@ -748,8 +748,11 @@
       <c r="Q4" s="15">
         <v>2020</v>
       </c>
+      <c r="R4" s="15">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
@@ -801,8 +804,11 @@
       <c r="Q5" s="16">
         <v>53.2</v>
       </c>
+      <c r="R5" s="16">
+        <v>47.8</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>17</v>
       </c>
@@ -854,8 +860,11 @@
       <c r="Q6" s="31">
         <v>23.2</v>
       </c>
+      <c r="R6" s="31">
+        <v>20.7</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>12</v>
       </c>
@@ -907,8 +916,11 @@
       <c r="Q7" s="32">
         <v>10</v>
       </c>
+      <c r="R7" s="32">
+        <v>9.8000000000000007</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>13</v>
       </c>
@@ -960,8 +972,11 @@
       <c r="Q8" s="33">
         <v>20</v>
       </c>
+      <c r="R8" s="33">
+        <v>17.3</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="29"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>

--- a/en/downloads/data-excel/1.a.2.xlsx
+++ b/en/downloads/data-excel/1.a.2.xlsx
@@ -232,7 +232,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -317,6 +317,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -623,20 +624,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" customWidth="1"/>
-    <col min="2" max="2" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="39.42578125" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
     <col min="3" max="3" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>19</v>
       </c>
@@ -658,7 +659,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>20</v>
       </c>
@@ -680,7 +681,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -696,7 +697,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
@@ -751,8 +752,11 @@
       <c r="R4" s="15">
         <v>2021</v>
       </c>
+      <c r="S4" s="15">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
@@ -807,8 +811,11 @@
       <c r="R5" s="16">
         <v>47.8</v>
       </c>
+      <c r="S5" s="16">
+        <v>44</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>17</v>
       </c>
@@ -863,8 +870,11 @@
       <c r="R6" s="31">
         <v>20.7</v>
       </c>
+      <c r="S6" s="34">
+        <v>20.6</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>12</v>
       </c>
@@ -919,8 +929,11 @@
       <c r="R7" s="32">
         <v>9.8000000000000007</v>
       </c>
+      <c r="S7" s="32">
+        <v>7.9</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>13</v>
       </c>
@@ -975,8 +988,11 @@
       <c r="R8" s="33">
         <v>17.3</v>
       </c>
+      <c r="S8" s="33">
+        <v>15.5</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="29"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>

--- a/en/downloads/data-excel/1.a.2.xlsx
+++ b/en/downloads/data-excel/1.a.2.xlsx
@@ -624,11 +624,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -637,7 +635,7 @@
     <col min="3" max="3" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>19</v>
       </c>
@@ -659,7 +657,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>20</v>
       </c>
@@ -681,7 +679,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -697,7 +695,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
@@ -755,8 +753,11 @@
       <c r="S4" s="15">
         <v>2022</v>
       </c>
+      <c r="T4" s="15">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
@@ -814,8 +815,11 @@
       <c r="S5" s="16">
         <v>44</v>
       </c>
+      <c r="T5" s="16">
+        <v>43.1</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>17</v>
       </c>
@@ -873,8 +877,11 @@
       <c r="S6" s="34">
         <v>20.6</v>
       </c>
+      <c r="T6" s="34">
+        <v>19.7</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>12</v>
       </c>
@@ -932,8 +939,11 @@
       <c r="S7" s="32">
         <v>7.9</v>
       </c>
+      <c r="T7" s="32">
+        <v>7.8</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>13</v>
       </c>
@@ -991,8 +1001,11 @@
       <c r="S8" s="33">
         <v>15.5</v>
       </c>
+      <c r="T8" s="33">
+        <v>15.6</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="29"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
